--- a/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -60,22 +60,22 @@
     <t>-1 - x</t>
   </si>
   <si>
-    <t>-1.0464313623348753</t>
+    <t>-5.25</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.22062995858676704</t>
+    <t>0.9</t>
   </si>
   <si>
     <t>-1 + x</t>
   </si>
   <si>
-    <t>-0.9535686376651246</t>
-  </si>
-  <si>
-    <t>0.6460048307718608</t>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>0.68</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,37 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 - 36.900990921812785y</t>
-  </si>
-  <si>
-    <t>-22.93653028397954</t>
+    <t>-1 + 19.753935879690562y</t>
+  </si>
+  <si>
+    <t>64.18798840297886</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.26285038252815807</t>
-  </si>
-  <si>
-    <t>-0.20664133281946095</t>
-  </si>
-  <si>
-    <t>-0.633987355462459</t>
-  </si>
-  <si>
-    <t>-1 + 0.9828192322313031y</t>
-  </si>
-  <si>
-    <t>-0.415743498671868</t>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>8.100000000000001</t>
+  </si>
+  <si>
+    <t>-1 + 0.5899551335322607y</t>
+  </si>
+  <si>
+    <t>0.9468519406564604</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.7476228142365086</t>
-  </si>
-  <si>
-    <t>-0.9672990496375139</t>
-  </si>
-  <si>
-    <t>-0.20088195329627612</t>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>6.7</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +126,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>0.04643136233487543</t>
-  </si>
-  <si>
-    <t>0.5944699515105025</t>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>3.3000000000000003</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>8.599700748411905</t>
+    <t>-48.70957922977757</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>0.0005820766691446745</t>
-  </si>
-  <si>
-    <t>-18.64525431218543</t>
+    <t>0.6262961186870797</t>
+  </si>
+  <si>
+    <t>-97.50964960469246</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -649,7 +646,7 @@
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -667,18 +664,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -696,12 +693,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -719,17 +716,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -747,12 +744,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.017180767768696925</v>
+        <v>0.4100448664677393</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -87,10 +87,10 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 + 19.753935879690562y</t>
-  </si>
-  <si>
-    <t>64.18798840297886</t>
+    <t>-1 - 2.16787934748732y</t>
+  </si>
+  <si>
+    <t>-8.154001846708155</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
@@ -99,16 +99,16 @@
     <t>0.23</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>8.100000000000001</t>
-  </si>
-  <si>
-    <t>-1 + 0.5899551335322607y</t>
-  </si>
-  <si>
-    <t>0.9468519406564604</t>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>-1.6</t>
+  </si>
+  <si>
+    <t>-1 + 0.26195154640202667y</t>
+  </si>
+  <si>
+    <t>-0.13555989687331194</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
@@ -117,7 +117,10 @@
     <t>0.58</t>
   </si>
   <si>
-    <t>6.7</t>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>9.3</t>
   </si>
   <si>
     <t>x</t>
@@ -135,16 +138,16 @@
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-48.70957922977757</t>
+    <t>-43.47731964699112</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>0.6262961186870797</t>
-  </si>
-  <si>
-    <t>-97.50964960469246</t>
+    <t>2.791119793746624</t>
+  </si>
+  <si>
+    <t>-114.01536647030993</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -646,7 +649,7 @@
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -664,18 +667,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -693,12 +696,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -716,17 +719,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -744,12 +747,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.4100448664677393</v>
+        <v>0.7380484535979733</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-1 - x</t>
-  </si>
-  <si>
-    <t>-5.25</t>
+    <t>0.8 - x</t>
+  </si>
+  <si>
+    <t>-1.8</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>-1 + x</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>0.68</t>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>-0.8 + x</t>
+  </si>
+  <si>
+    <t>-0.19999999999999996</t>
+  </si>
+  <si>
+    <t>0.96</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,40 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 - 2.16787934748732y</t>
-  </si>
-  <si>
-    <t>-8.154001846708155</t>
+    <t>-4.473856209150328 + 2.4183006535947715y</t>
+  </si>
+  <si>
+    <t>3.473856209150328</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>-1.6</t>
-  </si>
-  <si>
-    <t>-1 + 0.26195154640202667y</t>
-  </si>
-  <si>
-    <t>-0.13555989687331194</t>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>0.9805000000000001 - 0.53y</t>
+  </si>
+  <si>
+    <t>-1.9805000000000001</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>9.3</t>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>9.1</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>3.3000000000000003</t>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>1.85</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-43.47731964699112</t>
+    <t>-11.435158496732027</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>2.791119793746624</t>
-  </si>
-  <si>
-    <t>-114.01536647030993</t>
+    <t>4.591</t>
+  </si>
+  <si>
+    <t>-74.02545196078431</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -752,7 +752,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.7380484535979733</v>
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/Experimentos_Generador/MitsosBarton2006Ex312__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>0.8 - x</t>
-  </si>
-  <si>
-    <t>-1.8</t>
+    <t>1.9 - x</t>
+  </si>
+  <si>
+    <t>-2.9</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>-0.8 + x</t>
-  </si>
-  <si>
-    <t>-0.19999999999999996</t>
-  </si>
-  <si>
-    <t>0.96</t>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>-1.9 + x</t>
+  </si>
+  <si>
+    <t>0.8999999999999999</t>
+  </si>
+  <si>
+    <t>0.08</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,34 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-4.473856209150328 + 2.4183006535947715y</t>
-  </si>
-  <si>
-    <t>3.473856209150328</t>
+    <t>0.5062500000000001 - 3.375y</t>
+  </si>
+  <si>
+    <t>-1.50625</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>0.9805000000000001 - 0.53y</t>
-  </si>
-  <si>
-    <t>-1.9805000000000001</t>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>-4.6000000000000005</t>
+  </si>
+  <si>
+    <t>-8.100000000000001</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>9.1</t>
+    <t>0.97</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +123,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>1.85</t>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>0.15</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-11.435158496732027</t>
+    <t>0.597</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>4.591</t>
-  </si>
-  <si>
-    <t>-74.02545196078431</t>
+    <t>2.3200000000000003</t>
+  </si>
+  <si>
+    <t>-11.629000000000001</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -646,10 +640,10 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -667,18 +661,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -696,12 +690,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -719,17 +713,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -747,12 +741,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.53</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
   </sheetData>
